--- a/assets/sp_cetesb_infoaguas/excel/BPRU02300.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/BPRU02300.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,18 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.10000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -536,7 +540,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -546,7 +550,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,18 +570,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -592,13 +600,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>57.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,18 +630,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.90000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -644,18 +656,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>62.50000000</t>
+          <t>1.71000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -670,7 +682,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -680,7 +692,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -700,7 +712,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -710,7 +722,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -730,18 +742,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.81000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -756,13 +768,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.18000000</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -782,13 +794,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.78000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -808,13 +820,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.99000000</t>
+          <t>0.77000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -834,13 +846,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.90000000</t>
+          <t>1.21000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -860,18 +876,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.48000000</t>
+          <t>80.00000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -886,17 +902,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>9.34000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -916,18 +928,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.00000000</t>
+          <t>24.90000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -942,13 +954,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -968,17 +980,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.21000000</t>
+          <t>7.18000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -998,13 +1006,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1024,7 +1036,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Crômio Total</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1054,18 +1066,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Cor Verdadeira</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>62.50000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -1080,22 +1092,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>19.86000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1110,22 +1118,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>94.90000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1140,22 +1144,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1170,18 +1170,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.71000000</t>
+          <t>1.79000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1222,13 +1222,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1248,17 +1252,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>3.78000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1278,13 +1278,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.77000000</t>
+          <t>1.46000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1304,17 +1304,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>57.00000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1334,18 +1330,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.79000000</t>
+          <t>16.00000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1360,18 +1356,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Boro Total</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19.86000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1416,13 +1416,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9.34000000</t>
+          <t>6.81000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16.00000000</t>
+          <t>20.70000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Zinco Total</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1498,13 +1498,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.78000000</t>
+          <t>1.99000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1524,17 +1524,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>3.48000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1554,18 +1550,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>7.32000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1576,13 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Boro Total</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1610,18 +1602,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1636,18 +1632,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.32000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1662,18 +1662,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20.70000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1688,18 +1688,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.46000000</t>
+          <t>23.10000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1714,18 +1714,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>88.20000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1740,18 +1740,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.61000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1766,18 +1766,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.95000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1792,22 +1792,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>20.40000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1822,18 +1818,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>7.61000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1848,18 +1844,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.63000000</t>
+          <t>0.53000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1874,13 +1870,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1900,22 +1900,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>33.00000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1930,17 +1926,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1960,13 +1952,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1986,17 +1982,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>2.95000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2042,18 +2034,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.53000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2068,18 +2064,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29.40000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2094,18 +2090,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>33.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2120,18 +2120,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2146,13 +2150,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>20.40000000</t>
+          <t>19.20000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2172,18 +2176,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2198,17 +2206,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2228,18 +2232,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>88.20000000</t>
+          <t>8.11000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2254,22 +2258,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2284,18 +2284,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>19.20000000</t>
+          <t>29.40000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2310,13 +2310,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8.11000000</t>
+          <t>4.63000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2336,18 +2336,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2362,18 +2366,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>4.50000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2388,18 +2392,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>20.40000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2418,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2424,7 +2428,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2444,7 +2448,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2454,7 +2458,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2474,7 +2478,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2504,7 +2508,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2514,7 +2518,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2560,18 +2564,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>21.60000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2586,17 +2590,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>8.66000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2616,13 +2616,13 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>8.66000000</t>
+          <t>3.06000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2642,17 +2642,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2672,13 +2668,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2698,13 +2694,13 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2724,7 +2720,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2734,7 +2730,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2754,7 +2750,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Cádmio Total</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2764,7 +2760,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2784,18 +2780,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>21.60000000</t>
+          <t>8.30000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2810,18 +2806,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>22.72000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2866,18 +2862,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>7.98000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -2922,22 +2922,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>87.20000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2948,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2962,7 +2958,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2982,7 +2978,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Zinco Total</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3012,13 +3008,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3068,18 +3068,18 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>87.20000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3094,13 +3094,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3120,7 +3124,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3130,7 +3134,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3150,13 +3154,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3.06000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3176,13 +3184,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3202,18 +3214,18 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>7.98000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3228,18 +3240,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4.50000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3254,13 +3266,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.81000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3280,22 +3296,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3310,18 +3322,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3336,18 +3348,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>8.30000000</t>
+          <t>22.72000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3362,18 +3374,18 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>20.40000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3388,18 +3400,18 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2.31000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3414,17 +3426,13 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3444,18 +3452,18 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>2.31000000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3470,17 +3478,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>4.81000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3500,17 +3504,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3530,18 +3530,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>29.70000000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3560,13 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3586,13 +3586,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.75000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3612,14 +3616,10 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>0.02000000</t>
@@ -3642,13 +3642,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3.38000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3668,13 +3672,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>101.00000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3694,7 +3702,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3704,7 +3712,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3724,17 +3732,13 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>5.27000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3754,18 +3758,18 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>26.70000000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3780,18 +3784,18 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>29.70000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3806,13 +3810,13 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>97.00000000</t>
+          <t>1.53000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3832,7 +3836,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Chumbo Total</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3862,18 +3866,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3888,13 +3892,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3914,13 +3922,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>8.48000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3940,13 +3948,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3966,22 +3978,18 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3996,17 +4004,13 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4026,18 +4030,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>102.40000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4060,13 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4082,7 +4086,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4112,17 +4116,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>3.38000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4142,18 +4142,18 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>13.90000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4168,13 +4168,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>6.73000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4194,7 +4198,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4204,7 +4208,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4224,13 +4228,13 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>11.70000000</t>
+          <t>101.00000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4250,13 +4254,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>23.10000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4276,18 +4284,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>13.90000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4302,18 +4310,18 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4328,17 +4336,13 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>97.00000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4358,22 +4362,18 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>7.04000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4388,18 +4388,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5.27000000</t>
+          <t>102.40000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4414,18 +4414,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
+          <t>Crômio Total</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -4470,17 +4470,13 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>8.48000000</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4500,18 +4496,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>7.04000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4526,18 +4526,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>26.70000000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4552,13 +4552,13 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>11.70000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -4578,13 +4578,13 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>6.73000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4604,18 +4604,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4630,17 +4630,13 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1.75000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -4660,13 +4656,13 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>23.10000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -4686,13 +4682,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1.53000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -4712,13 +4712,13 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -4738,13 +4738,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0.00700000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4764,13 +4768,13 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>81.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -4790,17 +4794,13 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -4820,18 +4820,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>22.72000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4846,18 +4850,18 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>26.30000000</t>
+          <t>75.00000000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4872,22 +4876,18 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4902,18 +4902,18 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>36.00000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4928,18 +4928,18 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>8.20000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4954,17 +4954,13 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Boro Total</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -4984,17 +4980,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5014,18 +5006,18 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>25.60000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5040,18 +5032,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>22.72000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -5066,13 +5058,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>5.42000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5092,18 +5088,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>6.30000000</t>
+          <t>0.68300000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5118,13 +5114,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>11.10000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5144,17 +5144,13 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.00700000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5174,17 +5170,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>81.00000000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5204,18 +5196,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5230,17 +5226,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>5.42000000</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5260,18 +5252,18 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>25.60000000</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5286,13 +5278,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>0.68300000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5312,13 +5308,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -5338,18 +5338,18 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>102.60000000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5364,17 +5364,13 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5394,13 +5390,13 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -5450,22 +5446,18 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.14000000</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -5480,17 +5472,13 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>11.10000000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5540,13 +5528,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>75.00000000</t>
+          <t>8.10000000</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -5566,18 +5554,18 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>1.14000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5592,13 +5580,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>8.10000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -5618,18 +5610,18 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5644,18 +5636,18 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>26.30000000</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5670,13 +5662,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -5696,13 +5692,13 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -5722,7 +5718,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5732,7 +5728,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -5752,18 +5748,18 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1.66000000</t>
+          <t>6.30000000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -5778,17 +5774,13 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -5808,13 +5800,13 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>1.66000000</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -5860,18 +5852,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>Boro Total</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>102.60000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5886,18 +5882,18 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>36.00000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5912,16 +5908,3702 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1.79000000</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.36000000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Boro Total</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>0.95000000</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>4.00000000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>52.00000000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>20.30000000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>8.00000000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.09700000</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>54.00000000</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>10.50000000</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>4.60000000</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>25.90000000</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>8.00000000</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2.25000000</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>4.30000000</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>107.60000000</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>28.00000000</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
           <t>pH</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>8.20000000</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>7.32000000</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>11.23000000</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>44356.51388888889</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>23.20000000</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>7.61000000</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>3.57000000</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Boro Total</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2.15000000</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>75.00000000</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>5.50000000</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>14.30000000</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>118.90000000</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>10.90000000</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>6.36000000</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>29.30000000</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>17.18000000</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>0.62000000</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1.78000000</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>26.30000000</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>22.70000000</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>9.20000000</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>3.40000000</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>87.00000000</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>7.40000000</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>0.26000000</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>8.66000000</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>44453.52430555555</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>6.70000000</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>18.00000000</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>22.70000000</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>25.39000000</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>54.00000000</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>0.38000000</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.54000000</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>14.00000000</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>26.10000000</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>0.09300000</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>7.66000000</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>6.50000000</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>128.00000000</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>16.30000000</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>63.00000000</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>0.14000000</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>12.10000000</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>1.43000000</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Boro Total</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>4.20000000</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>6.60000000</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>0.06700000</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>0.61000000</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>5.86000000</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>1.69000000</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>BPRU02300</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>44537.51944444444</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>7.25000000</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
